--- a/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Hydraulic_Default_STD_STD-DA.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Hydraulic_Default_STD_STD-DA.xlsx
@@ -8,21 +8,30 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="143" r:id="rId1"/>
-    <sheet name="Output_KPA_Mnuladjt_dflt" r:id="rId5" sheetId="144"/>
-    <sheet name="Op_KPA_Mnladjst_ntv_dflt" r:id="rId6" sheetId="145"/>
-    <sheet name="Output_BAR_Mnuladjt_dflt" r:id="rId7" sheetId="146"/>
-    <sheet name="Op_BAR_Mnladjst_ntv_dflt" r:id="rId8" sheetId="147"/>
-    <sheet name="Output_PSI_Mnuladst_dflt" r:id="rId9" sheetId="148"/>
-    <sheet name="OP_PSI_Mnladjst_ntv_dflt" r:id="rId10" sheetId="149"/>
-    <sheet name="OP_KPA_electronicadjust_dflt" r:id="rId11" sheetId="150"/>
     <sheet name="OP_KPA_electronicadjust_Ntv_dfl" r:id="rId12" sheetId="151"/>
+    <sheet name="Output_KPA_Mnuladjt_dflt" r:id="rId23" sheetId="426"/>
+    <sheet name="Op_KPA_Mnladjst_ntv_dflt" r:id="rId24" sheetId="427"/>
+    <sheet name="Output_BAR_Mnuladjt_dflt" r:id="rId27" sheetId="428"/>
+    <sheet name="Op_BAR_Mnladjst_ntv_dflt" r:id="rId28" sheetId="429"/>
+    <sheet name="Output_PSI_Mnuladst_dflt" r:id="rId30" sheetId="430"/>
+    <sheet name="OP_PSI_Mnladjst_ntv_dflt" r:id="rId34" sheetId="431"/>
+    <sheet name="OP_KPA_electronicadjust_dflt" r:id="rId35" sheetId="432"/>
+    <sheet name="OP_KPA_elcnicadjt_Ntv_dflt" r:id="rId36" sheetId="433"/>
+    <sheet name="OP_BAR_electronicadjust_dflt" r:id="rId21" sheetId="434"/>
+    <sheet name="OP_BAR_elcnicadjt_Ntv_dflt" r:id="rId22" sheetId="435"/>
+    <sheet name="OP_PSI_electronicadjust_dflt" r:id="rId25" sheetId="436"/>
+    <sheet name="OP_PSI_elcnicadjt_Ntv_dflt" r:id="rId26" sheetId="437"/>
+    <sheet name="OP_KPA_Runup_dfltval" r:id="rId29" sheetId="438"/>
+    <sheet name="OP_BAR_Runup_dfltval" r:id="rId31" sheetId="439"/>
+    <sheet name="Output_Dfltval_Runup_Lnspd_ftmn" r:id="rId32" sheetId="440"/>
+    <sheet name="Output_Dfltval_Runup_Lnspd_mmn" r:id="rId33" sheetId="441"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="43">
   <si>
     <t>ulLowPressureAlertThreshold</t>
   </si>
@@ -100,6 +109,57 @@
   </si>
   <si>
     <t>70053</t>
+  </si>
+  <si>
+    <t>10350</t>
+  </si>
+  <si>
+    <t>72450</t>
+  </si>
+  <si>
+    <t>150114</t>
+  </si>
+  <si>
+    <t>1050800</t>
+  </si>
+  <si>
+    <t>usPressureCalPtMin</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>usPressureCalPtMax</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>usPressureMax</t>
+  </si>
+  <si>
+    <t>usPressureMin</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>usLinespeedCalPtMin</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>usLinespeedCalPtMax</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>ulFullScaleLineSpeed</t>
+  </si>
+  <si>
+    <t>32808</t>
   </si>
 </sst>
 </file>
@@ -1051,227 +1111,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet150.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
@@ -1317,4 +1156,636 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet426.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet427.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet428.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet429.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet430.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet431.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet432.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet433.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet434.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet435.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet436.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet437.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet438.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet439.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet440.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet441.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Hydraulic_Default_STD_STD-DA.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Hydraulic_Default_STD_STD-DA.xlsx
@@ -9,29 +9,29 @@
   <sheets>
     <sheet name="Sheet1" sheetId="143" r:id="rId1"/>
     <sheet name="OP_KPA_electronicadjust_Ntv_dfl" r:id="rId12" sheetId="151"/>
-    <sheet name="Output_KPA_Mnuladjt_dflt" r:id="rId23" sheetId="426"/>
-    <sheet name="Op_KPA_Mnladjst_ntv_dflt" r:id="rId24" sheetId="427"/>
-    <sheet name="Output_BAR_Mnuladjt_dflt" r:id="rId27" sheetId="428"/>
-    <sheet name="Op_BAR_Mnladjst_ntv_dflt" r:id="rId28" sheetId="429"/>
-    <sheet name="Output_PSI_Mnuladst_dflt" r:id="rId30" sheetId="430"/>
-    <sheet name="OP_PSI_Mnladjst_ntv_dflt" r:id="rId34" sheetId="431"/>
-    <sheet name="OP_KPA_electronicadjust_dflt" r:id="rId35" sheetId="432"/>
-    <sheet name="OP_KPA_elcnicadjt_Ntv_dflt" r:id="rId36" sheetId="433"/>
-    <sheet name="OP_BAR_electronicadjust_dflt" r:id="rId21" sheetId="434"/>
-    <sheet name="OP_BAR_elcnicadjt_Ntv_dflt" r:id="rId22" sheetId="435"/>
-    <sheet name="OP_PSI_electronicadjust_dflt" r:id="rId25" sheetId="436"/>
-    <sheet name="OP_PSI_elcnicadjt_Ntv_dflt" r:id="rId26" sheetId="437"/>
-    <sheet name="OP_KPA_Runup_dfltval" r:id="rId29" sheetId="438"/>
-    <sheet name="OP_BAR_Runup_dfltval" r:id="rId31" sheetId="439"/>
-    <sheet name="Output_Dfltval_Runup_Lnspd_ftmn" r:id="rId32" sheetId="440"/>
-    <sheet name="Output_Dfltval_Runup_Lnspd_mmn" r:id="rId33" sheetId="441"/>
+    <sheet name="Output_KPA_Mnuladjt_dflt" r:id="rId23" sheetId="508"/>
+    <sheet name="Op_KPA_Mnladjst_ntv_dflt" r:id="rId24" sheetId="509"/>
+    <sheet name="Output_BAR_Mnuladjt_dflt" r:id="rId27" sheetId="510"/>
+    <sheet name="Op_BAR_Mnladjst_ntv_dflt" r:id="rId28" sheetId="511"/>
+    <sheet name="Output_PSI_Mnuladst_dflt" r:id="rId30" sheetId="512"/>
+    <sheet name="OP_PSI_Mnladjst_ntv_dflt" r:id="rId34" sheetId="513"/>
+    <sheet name="OP_KPA_electronicadjust_dflt" r:id="rId35" sheetId="514"/>
+    <sheet name="OP_KPA_elcnicadjt_Ntv_dflt" r:id="rId36" sheetId="515"/>
+    <sheet name="OP_BAR_electronicadjust_dflt" r:id="rId21" sheetId="516"/>
+    <sheet name="OP_BAR_elcnicadjt_Ntv_dflt" r:id="rId22" sheetId="517"/>
+    <sheet name="OP_PSI_electronicadjust_dflt" r:id="rId25" sheetId="518"/>
+    <sheet name="OP_PSI_elcnicadjt_Ntv_dflt" r:id="rId26" sheetId="519"/>
+    <sheet name="OP_KPA_Runup_dfltval" r:id="rId29" sheetId="520"/>
+    <sheet name="OP_BAR_Runup_dfltval" r:id="rId31" sheetId="521"/>
+    <sheet name="Output_Dfltval_Runup_Lnspd_ftmn" r:id="rId32" sheetId="522"/>
+    <sheet name="Output_Dfltval_Runup_Lnspd_mmn" r:id="rId33" sheetId="523"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="43">
   <si>
     <t>ulLowPressureAlertThreshold</t>
   </si>
@@ -1158,7 +1158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet426.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet508.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1187,7 +1187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet427.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet509.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1216,7 +1216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet428.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet510.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1245,7 +1245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet429.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet511.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1274,7 +1274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet430.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet512.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1303,7 +1303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet431.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet513.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1332,7 +1332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet432.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet514.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1379,7 +1379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet433.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet515.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1426,7 +1426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet434.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet516.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1473,7 +1473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet435.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet517.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1520,7 +1520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet436.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet518.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1567,7 +1567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet437.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet519.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1614,7 +1614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet438.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet520.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1667,7 +1667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet439.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet521.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1720,7 +1720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet440.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet522.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1755,7 +1755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet441.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet523.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C2"/>
   <sheetViews>
